--- a/data/trans_dic/P15D$nada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 35,24</t>
+          <t>7,9; 34,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 33,71</t>
+          <t>13,22; 34,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,63; 38,94</t>
+          <t>11,21; 39,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,23</t>
+          <t>0,0; 45,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 45,67</t>
+          <t>15,84; 48,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,34</t>
+          <t>0,0; 27,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,73</t>
+          <t>0,0; 58,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 33,52</t>
+          <t>8,3; 31,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 33,61</t>
+          <t>16,12; 33,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 29,21</t>
+          <t>8,71; 30,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,82</t>
+          <t>0,0; 32,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,76; 49,89</t>
+          <t>17,11; 47,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 34,9</t>
+          <t>15,21; 34,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 27,35</t>
+          <t>7,63; 27,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 58,97</t>
+          <t>6,32; 57,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 44,43</t>
+          <t>5,26; 45,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,36; 46,84</t>
+          <t>15,45; 46,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 45,02</t>
+          <t>8,72; 45,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,11</t>
+          <t>0,0; 44,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,86; 41,88</t>
+          <t>17,64; 42,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 34,1</t>
+          <t>17,85; 34,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 27,22</t>
+          <t>9,85; 27,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 41,54</t>
+          <t>7,56; 41,58</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 55,45</t>
+          <t>7,03; 58,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 37,77</t>
+          <t>14,28; 40,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,59</t>
+          <t>0,0; 21,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,3</t>
+          <t>0,0; 20,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,23</t>
+          <t>0,0; 45,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 47,15</t>
+          <t>10,48; 47,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 34,49</t>
+          <t>3,75; 34,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 23,74</t>
+          <t>3,93; 23,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 42,98</t>
+          <t>6,94; 41,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,39; 37,17</t>
+          <t>15,83; 35,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 22,17</t>
+          <t>4,3; 21,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 17,45</t>
+          <t>3,62; 18,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 59,78</t>
+          <t>11,35; 57,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 36,97</t>
+          <t>10,56; 37,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 32,76</t>
+          <t>3,65; 32,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 29,73</t>
+          <t>8,6; 31,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 72,33</t>
+          <t>9,21; 71,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 43,19</t>
+          <t>11,78; 44,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,84</t>
+          <t>0,0; 22,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 41,92</t>
+          <t>16,39; 40,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 54,66</t>
+          <t>17,22; 54,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 34,52</t>
+          <t>14,26; 36,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 20,59</t>
+          <t>3,75; 19,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 30,48</t>
+          <t>12,85; 29,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 74,01</t>
+          <t>8,78; 74,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 56,46</t>
+          <t>7,52; 56,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,26</t>
+          <t>0,0; 47,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 31,99</t>
+          <t>5,51; 29,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,41</t>
+          <t>0,0; 39,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 45,7</t>
+          <t>15,53; 44,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 36,57</t>
+          <t>6,44; 36,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 20,36</t>
+          <t>3,72; 20,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 46,44</t>
+          <t>8,84; 45,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,49; 41,12</t>
+          <t>16,5; 41,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,35; 31,82</t>
+          <t>7,22; 30,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 19,23</t>
+          <t>6,16; 19,5</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,13</t>
+          <t>0,0; 82,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,72; 68,71</t>
+          <t>23,21; 73,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,67</t>
+          <t>0,0; 36,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,03; 51,93</t>
+          <t>15,82; 51,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,09; 59,4</t>
+          <t>8,97; 61,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,61; 50,39</t>
+          <t>15,54; 50,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,54; 43,63</t>
+          <t>10,68; 43,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 36,99</t>
+          <t>16,35; 38,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,4; 54,2</t>
+          <t>6,34; 53,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,97; 53,41</t>
+          <t>23,36; 52,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,89; 36,71</t>
+          <t>9,96; 36,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,63; 36,98</t>
+          <t>19,43; 37,56</t>
         </is>
       </c>
     </row>
@@ -1569,57 +1570,57 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,51; 51,69</t>
+          <t>9,37; 47,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,19; 48,68</t>
+          <t>9,49; 50,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 42,59</t>
+          <t>13,66; 42,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,93</t>
+          <t>0,0; 28,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 42,0</t>
+          <t>17,67; 42,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 26,18</t>
+          <t>3,09; 23,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,06; 32,81</t>
+          <t>16,52; 32,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,03</t>
+          <t>0,0; 18,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,17; 39,58</t>
+          <t>19,41; 39,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,98; 27,31</t>
+          <t>6,99; 26,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,63; 33,03</t>
+          <t>18,55; 31,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,72; 34,58</t>
+          <t>19,7; 36,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,97; 30,39</t>
+          <t>20,5; 30,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,43</t>
+          <t>11,06; 22,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,79; 23,29</t>
+          <t>11,56; 23,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,6; 25,71</t>
+          <t>10,23; 24,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,6</t>
+          <t>22,3; 34,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,54; 19,95</t>
+          <t>9,28; 20,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,12; 24,05</t>
+          <t>15,21; 24,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,71; 28,17</t>
+          <t>17,24; 28,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,87; 30,76</t>
+          <t>23,1; 30,95</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,02</t>
+          <t>11,93; 19,28</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,91</t>
+          <t>14,66; 22,03</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tuvo consecuencias el último accidente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6174</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13158</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10421</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8915</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3949</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8042</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22073</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11380</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3949</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2664; 11627</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7880; 20551</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4930; 17499</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3971</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4816</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4857; 14844</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4986</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11679</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3678; 13992</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14555; 30251</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5424; 18995</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12660</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11156</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19751</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7980</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7227</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10914</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4738</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15128</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30665</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12718</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8761</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5978; 16494</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12523; 28237</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3879; 13944</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1724; 15553</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>975; 8463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5875; 17531</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1978; 10206</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6694</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9438; 22658</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21477; 41646</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7242; 20205</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3195; 17563</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13144</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2660</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7690</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3032</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20835</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6435</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5513</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1049; 8745</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7627; 21361</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7882</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7552</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6051</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3079; 13978</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>939; 8571</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1101; 6707</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1966; 11701</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13105; 29399</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2621; 12861</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2352; 11738</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6322</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3371</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8817</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7835</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9693</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16821</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16554</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2218; 11264</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3819; 13428</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1051; 9384</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4358; 15884</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>890; 6942</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4121; 15513</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5558</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4817; 11977</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5029; 16020</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10145; 25624</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1998; 10213</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10292; 23820</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3579</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3037</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>12106</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5405</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4511</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15143</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7656</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7834</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>822; 7004</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>972; 7256</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6599</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1595; 8533</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3928</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6484; 18750</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1955; 10966</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1316; 7321</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1702; 8800</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9024; 22501</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3202; 13709</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3965; 12543</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8081</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5059</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2591</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7896</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8605</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3647</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15977</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8139</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13664</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3819</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4015; 12783</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3951</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2576; 8410</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>818; 5579</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3935; 12810</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3129; 12751</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5388; 12575</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>873; 7414</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9958; 22531</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4006; 14515</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9563; 18492</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6137</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5429</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>15307</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3922</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>12954</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>21444</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>7958</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>18383</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1567</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2064; 10374</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1440; 7714</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2832; 8796</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6356</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9576; 22987</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1240; 9440</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8745; 17431</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5381</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14796; 29862</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3867; 14517</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>13666; 23520</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>32687</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>71311</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>32388</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>33070</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>15712</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>71646</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>27103</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>41588</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>48399</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>142957</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>59491</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>74658</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>24250; 44542</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>58173; 87817</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>22072; 43968</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>23136; 47135</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>9594; 23310</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>56707; 86513</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>17651; 39101</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>32488; 52725</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>37386; 61372</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>124316; 166554</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>46506; 75176</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>60643; 91146</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>